--- a/企画制作チーム申請.xlsx
+++ b/企画制作チーム申請.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\1816023\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\1816023\Desktop\AGS2021Summer\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>チーム名</t>
     <rPh sb="3" eb="4">
@@ -222,24 +222,108 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>多分きっとおそらくおおよそ100日後に解散するチーム</t>
+    <t>DxLib</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全員</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新田</t>
+    <rPh sb="0" eb="2">
+      <t>ニッタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>木村</t>
+    <rPh sb="0" eb="2">
+      <t>キムラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>德田</t>
+    <rPh sb="0" eb="2">
+      <t>トクダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>楠見、厚東</t>
+    <rPh sb="0" eb="2">
+      <t>クスミ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タワーディフェンス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シンプルで分かりやすい見た目
+プレイヤーが暇な時間を作らないタワーディフェンス
+自分でマップ敵配置を作り他人に遊ばせられる</t>
+    <rPh sb="5" eb="6">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ヒマ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>タニン</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>アソ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>多分きっとおそらく100日後に解散するであろうチーム</t>
     <rPh sb="0" eb="2">
       <t>タブン</t>
     </rPh>
-    <rPh sb="16" eb="18">
+    <rPh sb="12" eb="14">
       <t>ニチゴ</t>
     </rPh>
-    <rPh sb="19" eb="21">
+    <rPh sb="15" eb="17">
       <t>カイサン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>タワーディフェンス、</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DxLib</t>
+    <t>DC&amp;IS(Defending colors &amp; Invading shapes)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -531,7 +615,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -585,6 +669,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -952,8 +1039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -984,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C4" s="13"/>
     </row>
@@ -1013,10 +1100,10 @@
     </row>
     <row r="8" spans="1:3" ht="30" customHeight="1">
       <c r="A8" s="15"/>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="20"/>
+      <c r="C8" s="21"/>
     </row>
     <row r="9" spans="1:3" ht="30" customHeight="1">
       <c r="A9" s="15"/>
@@ -1029,7 +1116,9 @@
       <c r="A10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="16"/>
+      <c r="B10" s="16" t="s">
+        <v>31</v>
+      </c>
       <c r="C10" s="17"/>
     </row>
     <row r="11" spans="1:3" ht="45" customHeight="1">
@@ -1037,7 +1126,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C11" s="17"/>
     </row>
@@ -1045,7 +1134,9 @@
       <c r="A12" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="16"/>
+      <c r="B12" s="18" t="s">
+        <v>29</v>
+      </c>
       <c r="C12" s="17"/>
     </row>
     <row r="13" spans="1:3" ht="45" customHeight="1">
@@ -1053,7 +1144,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C13" s="17"/>
     </row>
@@ -1064,45 +1155,57 @@
       <c r="B14" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="5"/>
+      <c r="C14" s="5" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="15" spans="1:3" ht="30" customHeight="1">
       <c r="A15" s="15"/>
       <c r="B15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="5"/>
+      <c r="C15" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="16" spans="1:3" ht="30" customHeight="1">
       <c r="A16" s="15"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="5"/>
+      <c r="C16" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="17" spans="1:3" ht="30" customHeight="1">
       <c r="A17" s="15"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="5"/>
+      <c r="C17" s="5" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="18" spans="1:3" ht="30" customHeight="1">
       <c r="A18" s="15"/>
       <c r="B18" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="5"/>
+      <c r="C18" s="5" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="19" spans="1:3" ht="30" customHeight="1">
       <c r="A19" s="15"/>
       <c r="B19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="5"/>
+      <c r="C19" s="5" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="20" spans="1:3" ht="30" customHeight="1" thickBot="1">
-      <c r="A20" s="18"/>
+      <c r="A20" s="19"/>
       <c r="B20" s="6" t="s">
         <v>12</v>
       </c>
